--- a/data/douradonis/exports/12345679_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/data/douradonis/exports/12345679_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>ARTID</t>
   </si>
@@ -107,28 +107,10 @@
     <t>ΕΠΩΝΥΜΙΑ</t>
   </si>
   <si>
-    <t>101401017</t>
-  </si>
-  <si>
-    <t>094475066</t>
-  </si>
-  <si>
-    <t>999644611</t>
-  </si>
-  <si>
-    <t>082657798</t>
-  </si>
-  <si>
-    <t>ΣΤΡΙΚΟΣ ΙΩΑΝΝ</t>
-  </si>
-  <si>
-    <t>ΜΥΡΤΕΑ 106</t>
-  </si>
-  <si>
-    <t>ΕΚΟ ΗΛΙΟΥΠΟΛΗΣ (R020)</t>
-  </si>
-  <si>
-    <t>ΝΙΚΟΛΑΟΥ ΙΩΑΝΝΗΣ ΚΑΙ ΣΙΑ ΟΕ</t>
+    <t>000000000</t>
+  </si>
+  <si>
+    <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
   </si>
 </sst>
 </file>
@@ -579,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>142076</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2">
         <v>45961</v>
@@ -632,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>142077</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2">
         <v>45944</v>
@@ -685,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>142078</v>
+        <v>170</v>
       </c>
       <c r="F4" s="2">
         <v>45944</v>
@@ -738,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>142079</v>
+        <v>170</v>
       </c>
       <c r="F5" s="2">
         <v>45938</v>
@@ -784,7 +766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,46 +790,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>142076</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>142077</v>
-      </c>
-      <c r="B3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>142078</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>142079</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
